--- a/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 18,31</t>
+          <t>-0,31; 17,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 14,26</t>
+          <t>-2,61; 14,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 22,18</t>
+          <t>3,29; 22,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,03; 30,39</t>
+          <t>9,25; 30,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 18,98</t>
+          <t>-0,65; 19,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 15,48</t>
+          <t>0,12; 15,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 21,17</t>
+          <t>7,23; 21,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 14,54</t>
+          <t>0,96; 13,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 16,21</t>
+          <t>4,03; 16,1</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 318,86</t>
+          <t>-3,86; 293,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 222,84</t>
+          <t>-22,95; 231,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 346,16</t>
+          <t>20,87; 379,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,07; 433,64</t>
+          <t>53,86; 413,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 283,4</t>
+          <t>-6,47; 257,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 218,59</t>
+          <t>0,39; 229,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,7; 274,61</t>
+          <t>52,85; 265,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 186,74</t>
+          <t>7,12; 175,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,44; 214,34</t>
+          <t>28,24; 223,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -1,26</t>
+          <t>-8,45; -0,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 1,69</t>
+          <t>-6,88; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 2,47</t>
+          <t>-6,04; 2,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 9,77</t>
+          <t>-0,57; 9,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 1,66</t>
+          <t>-7,2; 2,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,35</t>
+          <t>-5,01; 3,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,04</t>
+          <t>-3,33; 3,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 0,12</t>
+          <t>-5,85; 0,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 1,62</t>
+          <t>-4,18; 1,61</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,56; -8,36</t>
+          <t>-46,6; -4,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 12,88</t>
+          <t>-37,18; 11,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 18,63</t>
+          <t>-32,36; 19,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 54,65</t>
+          <t>-2,36; 53,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 9,59</t>
+          <t>-32,48; 11,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 18,64</t>
+          <t>-22,68; 18,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 18,42</t>
+          <t>-16,7; 19,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 0,76</t>
+          <t>-29,56; 0,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 10,06</t>
+          <t>-21,0; 10,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,99</t>
+          <t>-5,0; 2,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -3,72</t>
+          <t>-10,94; -4,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -4,71</t>
+          <t>-11,02; -4,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,71</t>
+          <t>-4,73; 3,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,11; -5,05</t>
+          <t>-12,3; -5,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -2,68</t>
+          <t>-9,72; -2,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,55</t>
+          <t>-3,83; 1,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -5,56</t>
+          <t>-10,43; -5,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,4; -4,6</t>
+          <t>-9,22; -4,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 11,92</t>
+          <t>-25,29; 13,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,13; -22,67</t>
+          <t>-53,82; -26,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,72; -28,18</t>
+          <t>-57,63; -28,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 17,37</t>
+          <t>-17,98; 14,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,71; -22,47</t>
+          <t>-47,86; -22,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,81; -12,28</t>
+          <t>-36,92; -10,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 8,14</t>
+          <t>-17,18; 7,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -28,98</t>
+          <t>-46,84; -28,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,93; -23,24</t>
+          <t>-41,51; -23,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 2,07</t>
+          <t>-6,37; 1,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -3,04</t>
+          <t>-10,59; -3,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 1,97</t>
+          <t>-6,94; 2,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,96</t>
+          <t>-2,33; 6,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,17; -2,59</t>
+          <t>-10,49; -2,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 32,68</t>
+          <t>-5,64; 31,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,12</t>
+          <t>-2,73; 3,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,69</t>
+          <t>-9,14; -3,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 18,46</t>
+          <t>-4,35; 19,75</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 15,22</t>
+          <t>-32,48; 14,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,06; -19,68</t>
+          <t>-54,26; -19,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 12,96</t>
+          <t>-35,0; 13,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 34,43</t>
+          <t>-9,04; 31,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,87; -12,34</t>
+          <t>-41,62; -12,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 154,89</t>
+          <t>-24,35; 144,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 17,13</t>
+          <t>-12,67; 16,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,11; -20,23</t>
+          <t>-43,05; -18,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 98,51</t>
+          <t>-21,22; 102,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,6</t>
+          <t>-2,35; 4,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -1,68</t>
+          <t>-8,31; -1,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 1,57</t>
+          <t>-5,14; 1,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,27</t>
+          <t>1,71; 9,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -2,24</t>
+          <t>-9,28; -2,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,21</t>
+          <t>-4,8; 2,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,95</t>
+          <t>0,99; 6,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,9; -3,05</t>
+          <t>-7,8; -2,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,92</t>
+          <t>-3,69; 1,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 30,06</t>
+          <t>-12,4; 28,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -11,06</t>
+          <t>-43,97; -11,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,16; 10,31</t>
+          <t>-28,01; 11,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,96; 42,84</t>
+          <t>6,51; 43,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,44; -10,53</t>
+          <t>-37,63; -10,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 10,56</t>
+          <t>-19,14; 10,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,96; 31,27</t>
+          <t>4,61; 33,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -16,27</t>
+          <t>-36,57; -15,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 4,88</t>
+          <t>-17,07; 7,19</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,83</t>
+          <t>-3,05; 0,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,41</t>
+          <t>-6,97; -3,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -1,48</t>
+          <t>-5,13; -1,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,94</t>
+          <t>1,48; 5,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -3,91</t>
+          <t>-7,5; -3,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,11</t>
+          <t>-3,55; 7,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,69</t>
+          <t>-0,15; 2,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -4,21</t>
+          <t>-6,94; -4,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,37</t>
+          <t>-3,51; 3,38</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 4,84</t>
+          <t>-17,14; 3,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -21,26</t>
+          <t>-39,25; -21,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -9,16</t>
+          <t>-29,13; -9,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,11; 27,76</t>
+          <t>6,07; 26,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-33,12; -18,32</t>
+          <t>-32,09; -16,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 32,17</t>
+          <t>-15,68; 35,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 14,05</t>
+          <t>-0,77; 13,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -22,0</t>
+          <t>-33,46; -21,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 18,04</t>
+          <t>-17,41; 18,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 17,64</t>
+          <t>-0,81; 17,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 14,3</t>
+          <t>-2,37; 14,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 22,15</t>
+          <t>2,97; 23,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 30,52</t>
+          <t>9,71; 29,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 19,04</t>
+          <t>0,61; 19,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 15,4</t>
+          <t>0,8; 15,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 21,02</t>
+          <t>6,91; 20,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 13,56</t>
+          <t>1,09; 14,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 16,1</t>
+          <t>3,85; 16,13</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 293,79</t>
+          <t>-10,29; 294,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 231,02</t>
+          <t>-19,84; 234,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,87; 379,95</t>
+          <t>12,65; 354,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,86; 413,57</t>
+          <t>55,68; 448,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 257,22</t>
+          <t>2,1; 291,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 229,71</t>
+          <t>1,98; 229,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,85; 265,68</t>
+          <t>50,7; 271,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 175,31</t>
+          <t>3,22; 187,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,24; 223,56</t>
+          <t>23,96; 196,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -0,59</t>
+          <t>-9,39; -1,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 1,72</t>
+          <t>-6,56; 1,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,76</t>
+          <t>-6,09; 2,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 9,53</t>
+          <t>0,64; 10,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 2,08</t>
+          <t>-7,2; 1,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,25</t>
+          <t>-4,85; 3,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,24</t>
+          <t>-3,3; 3,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 0,14</t>
+          <t>-6,18; 0,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,61</t>
+          <t>-4,2; 1,5</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,6; -4,32</t>
+          <t>-50,29; -8,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,18; 11,85</t>
+          <t>-36,87; 10,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 19,98</t>
+          <t>-33,06; 16,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 53,46</t>
+          <t>2,39; 55,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 11,62</t>
+          <t>-32,87; 9,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 18,34</t>
+          <t>-21,43; 20,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 19,95</t>
+          <t>-17,23; 19,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 0,55</t>
+          <t>-31,52; 1,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 10,41</t>
+          <t>-20,93; 9,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 2,12</t>
+          <t>-5,06; 2,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -4,43</t>
+          <t>-10,43; -4,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -4,59</t>
+          <t>-11,07; -4,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,24</t>
+          <t>-4,27; 3,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,3; -5,04</t>
+          <t>-12,25; -4,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -2,32</t>
+          <t>-9,6; -2,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,56</t>
+          <t>-3,84; 1,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -5,52</t>
+          <t>-10,52; -5,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -4,51</t>
+          <t>-9,2; -4,43</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 13,31</t>
+          <t>-25,24; 13,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,82; -26,32</t>
+          <t>-53,67; -25,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,63; -28,45</t>
+          <t>-56,05; -26,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 14,9</t>
+          <t>-16,95; 16,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,86; -22,96</t>
+          <t>-46,71; -21,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,92; -10,89</t>
+          <t>-36,89; -12,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 7,81</t>
+          <t>-17,18; 6,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,84; -28,05</t>
+          <t>-47,49; -28,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,51; -23,15</t>
+          <t>-41,55; -22,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 1,91</t>
+          <t>-5,92; 2,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -3,07</t>
+          <t>-10,36; -2,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 2,01</t>
+          <t>-6,69; 1,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,7</t>
+          <t>-2,26; 7,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -2,48</t>
+          <t>-10,94; -2,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 31,05</t>
+          <t>-5,78; 29,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,08</t>
+          <t>-2,76; 3,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -3,55</t>
+          <t>-9,34; -3,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 19,75</t>
+          <t>-4,3; 19,72</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 14,24</t>
+          <t>-31,58; 15,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,26; -19,98</t>
+          <t>-54,88; -18,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 13,86</t>
+          <t>-34,27; 12,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 31,93</t>
+          <t>-8,77; 34,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,62; -12,01</t>
+          <t>-42,41; -10,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 144,19</t>
+          <t>-24,19; 139,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 16,92</t>
+          <t>-12,8; 17,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,05; -18,67</t>
+          <t>-43,47; -19,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 102,21</t>
+          <t>-20,88; 105,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,38</t>
+          <t>-2,39; 4,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,31; -1,94</t>
+          <t>-7,98; -1,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,73</t>
+          <t>-5,1; 1,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,71; 9,28</t>
+          <t>1,59; 9,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,28; -2,2</t>
+          <t>-9,56; -2,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,24</t>
+          <t>-4,52; 2,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,18</t>
+          <t>0,93; 6,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -2,78</t>
+          <t>-7,79; -3,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,31</t>
+          <t>-3,82; 1,16</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 28,51</t>
+          <t>-12,79; 32,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,97; -11,63</t>
+          <t>-43,42; -10,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 11,17</t>
+          <t>-27,39; 10,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,51; 43,13</t>
+          <t>6,23; 43,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,63; -10,59</t>
+          <t>-37,95; -11,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 10,62</t>
+          <t>-17,79; 10,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,61; 33,06</t>
+          <t>4,33; 31,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,57; -15,09</t>
+          <t>-36,45; -16,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 7,19</t>
+          <t>-17,93; 6,16</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,65</t>
+          <t>-2,9; 0,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -3,51</t>
+          <t>-6,8; -3,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,13; -1,55</t>
+          <t>-5,19; -1,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,75</t>
+          <t>1,62; 5,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -3,59</t>
+          <t>-7,56; -3,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,72</t>
+          <t>-3,61; 7,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,63</t>
+          <t>-0,06; 2,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -4,14</t>
+          <t>-6,77; -4,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,38</t>
+          <t>-3,4; 3,59</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 3,97</t>
+          <t>-16,12; 4,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -21,78</t>
+          <t>-38,17; -21,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,13; -9,61</t>
+          <t>-29,54; -9,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,07; 26,32</t>
+          <t>6,92; 25,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,09; -16,98</t>
+          <t>-32,3; -17,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 35,97</t>
+          <t>-15,76; 37,1</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 13,76</t>
+          <t>-0,34; 13,88</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-33,46; -21,85</t>
+          <t>-33,27; -21,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 18,66</t>
+          <t>-17,12; 18,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 17,59</t>
+          <t>-1,12; 18,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 14,44</t>
+          <t>-3,88; 14,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 23,1</t>
+          <t>1,89; 22,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,71; 29,91</t>
+          <t>9,03; 30,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 19,5</t>
+          <t>-0,36; 18,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 15,74</t>
+          <t>1,13; 15,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 20,84</t>
+          <t>7,19; 21,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 14,85</t>
+          <t>1,78; 14,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 16,13</t>
+          <t>3,82; 16,21</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 294,34</t>
+          <t>-15,5; 318,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 234,63</t>
+          <t>-32,09; 222,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,65; 354,81</t>
+          <t>5,23; 346,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,68; 448,56</t>
+          <t>55,07; 433,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 291,75</t>
+          <t>-3,98; 283,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 229,58</t>
+          <t>2,85; 218,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,7; 271,96</t>
+          <t>53,7; 274,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 187,26</t>
+          <t>11,96; 186,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,96; 196,89</t>
+          <t>28,44; 214,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -1,2</t>
+          <t>-9,0; -1,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,54</t>
+          <t>-6,53; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 2,23</t>
+          <t>-6,23; 2,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 10,08</t>
+          <t>-0,14; 9,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 1,55</t>
+          <t>-7,24; 1,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 3,49</t>
+          <t>-4,81; 3,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,29</t>
+          <t>-3,22; 3,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 0,26</t>
+          <t>-5,86; 0,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,5</t>
+          <t>-4,27; 1,62</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,29; -8,04</t>
+          <t>-49,56; -8,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 10,2</t>
+          <t>-35,95; 12,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 16,37</t>
+          <t>-32,61; 18,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 55,18</t>
+          <t>-0,63; 54,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 9,67</t>
+          <t>-32,38; 9,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 20,79</t>
+          <t>-21,51; 18,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 19,52</t>
+          <t>-15,84; 18,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 1,82</t>
+          <t>-29,84; 0,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 9,12</t>
+          <t>-21,76; 10,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,01</t>
+          <t>-4,73; 1,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -4,17</t>
+          <t>-10,49; -3,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -4,4</t>
+          <t>-11,09; -4,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 3,57</t>
+          <t>-4,14; 3,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,25; -4,69</t>
+          <t>-12,11; -5,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; -2,73</t>
+          <t>-9,58; -2,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,33</t>
+          <t>-3,82; 1,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -5,52</t>
+          <t>-10,38; -5,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -4,43</t>
+          <t>-9,4; -4,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 13,68</t>
+          <t>-24,93; 11,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,67; -25,51</t>
+          <t>-54,13; -22,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,05; -26,9</t>
+          <t>-56,72; -28,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 16,38</t>
+          <t>-15,97; 17,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,71; -21,87</t>
+          <t>-46,71; -22,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,89; -12,94</t>
+          <t>-36,81; -12,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 6,8</t>
+          <t>-17,1; 8,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,49; -28,38</t>
+          <t>-47,21; -28,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,55; -22,88</t>
+          <t>-41,93; -23,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 2,26</t>
+          <t>-6,5; 2,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -2,77</t>
+          <t>-10,67; -3,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,94</t>
+          <t>-6,46; 1,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,07</t>
+          <t>-2,06; 6,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -2,18</t>
+          <t>-11,17; -2,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 29,57</t>
+          <t>-5,43; 32,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,18</t>
+          <t>-2,75; 3,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,34; -3,56</t>
+          <t>-9,18; -3,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 19,72</t>
+          <t>-4,27; 18,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 15,65</t>
+          <t>-33,24; 15,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,88; -18,08</t>
+          <t>-55,06; -19,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 12,82</t>
+          <t>-34,61; 12,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 34,06</t>
+          <t>-8,2; 34,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,41; -10,39</t>
+          <t>-43,87; -12,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 139,81</t>
+          <t>-23,3; 154,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 17,4</t>
+          <t>-12,82; 17,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,47; -19,41</t>
+          <t>-43,11; -20,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 105,23</t>
+          <t>-20,69; 98,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,94</t>
+          <t>-2,49; 4,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -1,55</t>
+          <t>-7,92; -1,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,59</t>
+          <t>-5,01; 1,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,28</t>
+          <t>1,48; 9,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -2,48</t>
+          <t>-9,61; -2,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 2,1</t>
+          <t>-4,73; 2,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,93; 6,24</t>
+          <t>0,63; 5,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -3,18</t>
+          <t>-7,9; -3,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,16</t>
+          <t>-3,8; 0,92</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 32,67</t>
+          <t>-13,5; 30,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,42; -10,27</t>
+          <t>-42,68; -11,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 10,1</t>
+          <t>-27,16; 10,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,23; 43,84</t>
+          <t>5,96; 42,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,95; -11,49</t>
+          <t>-38,44; -10,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 10,04</t>
+          <t>-18,71; 10,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,33; 31,97</t>
+          <t>2,96; 31,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,45; -16,75</t>
+          <t>-37,0; -16,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 6,16</t>
+          <t>-17,84; 4,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,7</t>
+          <t>-2,94; 0,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,8; -3,5</t>
+          <t>-6,95; -3,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -1,39</t>
+          <t>-4,99; -1,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,57</t>
+          <t>1,65; 5,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -3,9</t>
+          <t>-7,73; -3,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,95</t>
+          <t>-3,53; 7,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 2,66</t>
+          <t>-0,11; 2,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -4,13</t>
+          <t>-6,75; -4,21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,59</t>
+          <t>-3,44; 3,37</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 4,47</t>
+          <t>-16,69; 4,84</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,17; -21,72</t>
+          <t>-38,7; -21,26</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,54; -9,19</t>
+          <t>-28,16; -9,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,92; 25,92</t>
+          <t>7,11; 27,76</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,3; -17,71</t>
+          <t>-33,12; -18,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 37,1</t>
+          <t>-15,54; 32,17</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 13,88</t>
+          <t>-0,55; 14,05</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -21,92</t>
+          <t>-33,27; -22,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 18,88</t>
+          <t>-17,28; 18,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,1</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,27</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 18,31</t>
+          <t>-6,28; 0,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 14,26</t>
+          <t>-5,21; 2,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 22,18</t>
+          <t>-3,89; 4,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,03; 30,39</t>
+          <t>2,9; 11,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 18,98</t>
+          <t>-4,64; 3,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 15,48</t>
+          <t>-3,63; 3,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 21,17</t>
+          <t>-1,18; 4,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 14,54</t>
+          <t>-3,86; 1,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 16,21</t>
+          <t>-2,43; 2,87</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,86%</t>
+          <t>-18,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>-8,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>120,4%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>180,57%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,22%</t>
+          <t>-3,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>134,5%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,58%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 318,86</t>
+          <t>-36,38; 7,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 222,84</t>
+          <t>-30,21; 17,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 346,16</t>
+          <t>-21,98; 29,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,07; 433,64</t>
+          <t>14,42; 71,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 283,4</t>
+          <t>-23,11; 21,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 218,59</t>
+          <t>-16,94; 23,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,7; 274,61</t>
+          <t>-5,89; 32,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 186,74</t>
+          <t>-21,39; 10,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,44; 214,34</t>
+          <t>-13,19; 17,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-8,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-7,93</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-8,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -1,26</t>
+          <t>-4,73; 1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 1,69</t>
+          <t>-10,49; -3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 2,47</t>
+          <t>-14,45; -5,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 9,77</t>
+          <t>-4,14; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 1,66</t>
+          <t>-12,11; -5,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,35</t>
+          <t>-9,45; -2,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,04</t>
+          <t>-3,82; 1,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 0,12</t>
+          <t>-10,38; -5,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 1,62</t>
+          <t>-12,8; -5,63</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,15%</t>
+          <t>-8,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,86%</t>
+          <t>-41,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,6%</t>
+          <t>-53,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,75%</t>
+          <t>-35,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>-25,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,14%</t>
+          <t>-38,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,15%</t>
+          <t>-40,01%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,56; -8,36</t>
+          <t>-24,93; 11,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 12,88</t>
+          <t>-54,13; -22,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 18,63</t>
+          <t>-77,88; -36,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 54,65</t>
+          <t>-15,97; 17,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 9,59</t>
+          <t>-46,71; -22,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 18,64</t>
+          <t>-36,64; -12,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 18,42</t>
+          <t>-17,1; 8,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 0,76</t>
+          <t>-47,21; -28,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 10,06</t>
+          <t>-57,48; -28,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,72</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>6,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,99</t>
+          <t>-6,5; 2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -3,72</t>
+          <t>-10,67; -3,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -4,71</t>
+          <t>-6,64; 1,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,71</t>
+          <t>-2,06; 6,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,11; -5,05</t>
+          <t>-11,17; -2,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -2,68</t>
+          <t>-6,47; 45,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,55</t>
+          <t>-2,75; 3,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -5,56</t>
+          <t>-9,18; -3,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,4; -4,6</t>
+          <t>-4,67; 30,48</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,91%</t>
+          <t>-12,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,47%</t>
+          <t>-38,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-43,26%</t>
+          <t>-14,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-35,69%</t>
+          <t>-28,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>54,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-38,08%</t>
+          <t>-32,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-32,98%</t>
+          <t>32,73%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 11,92</t>
+          <t>-33,24; 15,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,13; -22,67</t>
+          <t>-55,06; -19,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,72; -28,18</t>
+          <t>-34,73; 12,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 17,37</t>
+          <t>-8,2; 34,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,71; -22,47</t>
+          <t>-43,87; -12,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,81; -12,28</t>
+          <t>-26,67; 217,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 8,14</t>
+          <t>-12,82; 17,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -28,98</t>
+          <t>-43,11; -20,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,93; -23,24</t>
+          <t>-22,69; 160,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,55</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-2,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 2,07</t>
+          <t>-2,49; 4,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -3,04</t>
+          <t>-7,92; -1,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 1,97</t>
+          <t>-5,33; 1,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,96</t>
+          <t>1,48; 9,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,17; -2,59</t>
+          <t>-9,61; -2,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 32,68</t>
+          <t>-6,79; 1,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,12</t>
+          <t>0,63; 5,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,69</t>
+          <t>-7,9; -3,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 18,46</t>
+          <t>-4,89; 0,48</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-38,99%</t>
+          <t>-28,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,77%</t>
+          <t>-13,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-28,1%</t>
+          <t>-25,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>-10,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-32,55%</t>
+          <t>-26,54%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>-11,13%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 15,22</t>
+          <t>-13,5; 30,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,06; -19,68</t>
+          <t>-42,68; -11,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 12,96</t>
+          <t>-28,96; 8,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 34,43</t>
+          <t>5,96; 42,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,87; -12,34</t>
+          <t>-38,44; -10,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 154,89</t>
+          <t>-26,95; 5,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 17,13</t>
+          <t>2,96; 31,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,11; -20,23</t>
+          <t>-37,0; -16,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 98,51</t>
+          <t>-23,37; 2,36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,6</t>
+          <t>-2,94; 0,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -1,68</t>
+          <t>-6,95; -3,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 1,57</t>
+          <t>-7,04; -2,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,27</t>
+          <t>1,65; 5,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -2,24</t>
+          <t>-7,73; -3,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,21</t>
+          <t>-4,1; 15,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,95</t>
+          <t>-0,11; 2,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,9; -3,05</t>
+          <t>-6,75; -4,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,92</t>
+          <t>-4,45; 6,71</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>-6,79%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-28,24%</t>
+          <t>-31,21%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-25,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>-25,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-26,54%</t>
+          <t>-27,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-7,75%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 30,06</t>
+          <t>-16,69; 4,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -11,06</t>
+          <t>-38,7; -21,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,16; 10,31</t>
+          <t>-40,3; -15,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,96; 42,84</t>
+          <t>7,11; 27,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,44; -10,53</t>
+          <t>-33,12; -18,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 10,56</t>
+          <t>-17,98; 67,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,96; 31,27</t>
+          <t>-0,55; 14,05</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -16,27</t>
+          <t>-33,27; -22,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 4,88</t>
+          <t>-22,39; 35,91</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-5,28</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-5,74</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-5,5</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 0,83</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; -3,41</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; -1,48</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 5,94</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-7,73; -3,91</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 7,11</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 2,69</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-6,75; -4,21</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 3,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-6,79%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-31,21%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-19,6%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>15,76%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-25,66%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-2,48%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>6,29%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-27,94%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-8,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 4,84</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-38,7; -21,26</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-28,16; -9,16</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 27,76</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-33,12; -18,32</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-15,54; 32,17</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 14,05</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-33,27; -22,0</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-17,28; 18,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 0,95</t>
+          <t>-6,26; 0,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,3</t>
+          <t>-4,86; 3,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,07</t>
+          <t>-3,86; 3,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,77</t>
+          <t>2,36; 11,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 3,55</t>
+          <t>-4,98; 3,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 3,9</t>
+          <t>-3,3; 4,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,94</t>
+          <t>-0,85; 5,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 1,57</t>
+          <t>-4,06; 1,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,87</t>
+          <t>-2,34; 2,96</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 7,64</t>
+          <t>-36,64; 4,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 17,13</t>
+          <t>-27,76; 23,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 29,7</t>
+          <t>-22,37; 29,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 71,6</t>
+          <t>11,3; 68,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 21,44</t>
+          <t>-24,38; 19,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 23,83</t>
+          <t>-15,61; 25,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 32,53</t>
+          <t>-4,86; 31,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 10,07</t>
+          <t>-21,65; 11,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 17,79</t>
+          <t>-12,71; 19,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,99</t>
+          <t>-5,22; 1,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -3,72</t>
+          <t>-10,42; -4,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -5,9</t>
+          <t>-14,49; -5,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,71</t>
+          <t>-4,8; 3,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,11; -5,05</t>
+          <t>-12,15; -5,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -2,6</t>
+          <t>-9,19; -2,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,55</t>
+          <t>-3,5; 1,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -5,56</t>
+          <t>-10,58; -5,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -5,63</t>
+          <t>-12,82; -5,77</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 11,92</t>
+          <t>-26,91; 9,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,13; -22,67</t>
+          <t>-54,15; -25,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,88; -36,31</t>
+          <t>-74,74; -36,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 17,37</t>
+          <t>-18,64; 16,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,71; -22,47</t>
+          <t>-46,82; -22,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,64; -12,04</t>
+          <t>-35,52; -11,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 8,14</t>
+          <t>-15,92; 7,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -28,98</t>
+          <t>-47,65; -28,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,48; -28,25</t>
+          <t>-60,25; -29,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 2,07</t>
+          <t>-6,01; 1,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -3,04</t>
+          <t>-10,46; -3,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,82</t>
+          <t>-6,87; 1,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,96</t>
+          <t>-1,99; 6,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,17; -2,59</t>
+          <t>-10,54; -2,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 45,92</t>
+          <t>-6,64; 43,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,12</t>
+          <t>-2,92; 3,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,69</t>
+          <t>-9,17; -3,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 30,48</t>
+          <t>-4,48; 30,36</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 15,22</t>
+          <t>-31,5; 12,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,06; -19,68</t>
+          <t>-54,45; -19,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 12,63</t>
+          <t>-35,31; 12,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 34,43</t>
+          <t>-8,74; 32,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,87; -12,34</t>
+          <t>-42,06; -9,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 217,9</t>
+          <t>-27,9; 219,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 17,13</t>
+          <t>-13,25; 17,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,11; -20,23</t>
+          <t>-42,6; -18,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 160,39</t>
+          <t>-22,17; 161,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,6</t>
+          <t>-2,16; 5,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -1,68</t>
+          <t>-7,84; -1,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,23</t>
+          <t>-5,41; 1,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,27</t>
+          <t>1,99; 9,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -2,24</t>
+          <t>-9,41; -2,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 1,2</t>
+          <t>-7,15; 1,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,95</t>
+          <t>0,94; 6,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,9; -3,05</t>
+          <t>-8,07; -2,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 0,48</t>
+          <t>-4,97; 0,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 30,06</t>
+          <t>-11,91; 33,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -11,06</t>
+          <t>-42,84; -7,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 8,5</t>
+          <t>-29,2; 8,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 42,84</t>
+          <t>8,0; 44,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,44; -10,53</t>
+          <t>-37,83; -11,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 5,24</t>
+          <t>-29,46; 4,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,96; 31,27</t>
+          <t>4,22; 32,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -16,27</t>
+          <t>-37,11; -15,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 2,36</t>
+          <t>-23,21; 3,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,83</t>
+          <t>-3,11; 0,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,41</t>
+          <t>-7,14; -3,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -2,51</t>
+          <t>-7,28; -2,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,94</t>
+          <t>1,42; 5,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -3,91</t>
+          <t>-7,71; -3,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 15,08</t>
+          <t>-3,87; 15,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,69</t>
+          <t>-0,08; 2,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -4,21</t>
+          <t>-6,77; -4,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 6,71</t>
+          <t>-4,67; 6,37</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 4,84</t>
+          <t>-17,0; 3,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -21,26</t>
+          <t>-40,02; -21,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -15,37</t>
+          <t>-42,48; -15,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,11; 27,76</t>
+          <t>5,97; 27,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,12; -18,32</t>
+          <t>-32,82; -18,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 67,44</t>
+          <t>-17,18; 68,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 14,05</t>
+          <t>-0,34; 13,74</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -22,0</t>
+          <t>-33,16; -22,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 35,91</t>
+          <t>-23,43; 32,19</t>
         </is>
       </c>
     </row>
